--- a/data/trans_orig/P05A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A04-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32618CE2-A2A0-4055-B024-306A1EED1BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{960D6FEF-A31E-40E1-A223-E38F0D8CFD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C68FB5B6-C6CA-4780-A6F2-EDED23F3683D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51D7E0D6-7E45-4E41-A7F1-77043FA976FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="530">
   <si>
     <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2007 (Tasa respuesta: 99,02%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nada</t>
@@ -77,16 +77,16 @@
     <t>95,29%</t>
   </si>
   <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>95,56%</t>
+    <t>95,66%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -95,10 +95,10 @@
     <t>97,18%</t>
   </si>
   <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,10 +107,10 @@
     <t>4,71%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -119,1519 +119,1516 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,13%)</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2015 (Tasa respuesta: 99,13%)</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
     <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
   </si>
 </sst>
 </file>
@@ -2043,7 +2040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8128EE94-574F-4506-AC8E-64C751FB1EF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A11AAB-4CCB-433D-AC11-9FB13D0D80E5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2681,13 +2678,13 @@
         <v>17378</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -2696,13 +2693,13 @@
         <v>27634</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -2711,13 +2708,13 @@
         <v>45013</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,7 +2770,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2785,13 +2782,13 @@
         <v>586654</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>614</v>
@@ -2800,13 +2797,13 @@
         <v>602287</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>1168</v>
@@ -2815,13 +2812,13 @@
         <v>1188942</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,13 +2833,13 @@
         <v>78400</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -2851,13 +2848,13 @@
         <v>64505</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>137</v>
@@ -2866,13 +2863,13 @@
         <v>142905</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2884,13 @@
         <v>8056</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -2902,13 +2899,13 @@
         <v>14532</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -2917,13 +2914,13 @@
         <v>22588</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,7 +2976,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2991,13 +2988,13 @@
         <v>823161</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>866</v>
@@ -3006,28 +3003,28 @@
         <v>899802</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>1734</v>
       </c>
       <c r="N20" s="7">
-        <v>1722963</v>
+        <v>1722962</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,10 +3042,10 @@
         <v>79</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H21" s="7">
         <v>92</v>
@@ -3057,13 +3054,13 @@
         <v>96974</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M21" s="7">
         <v>171</v>
@@ -3072,13 +3069,13 @@
         <v>170743</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3090,13 @@
         <v>24935</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -3108,13 +3105,13 @@
         <v>19689</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -3123,13 +3120,13 @@
         <v>44625</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,7 +3168,7 @@
         <v>1950</v>
       </c>
       <c r="N23" s="7">
-        <v>1938331</v>
+        <v>1938330</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>35</v>
@@ -3197,28 +3194,28 @@
         <v>2896029</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="H24" s="7">
         <v>2926</v>
       </c>
       <c r="I24" s="7">
-        <v>2986631</v>
+        <v>2986630</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M24" s="7">
         <v>5766</v>
@@ -3227,13 +3224,13 @@
         <v>5882660</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3245,13 @@
         <v>289752</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>269</v>
@@ -3263,13 +3260,13 @@
         <v>286995</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M25" s="7">
         <v>553</v>
@@ -3278,13 +3275,13 @@
         <v>576747</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,13 +3296,13 @@
         <v>58268</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>71</v>
@@ -3314,13 +3311,13 @@
         <v>72642</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M26" s="7">
         <v>128</v>
@@ -3329,13 +3326,13 @@
         <v>130909</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>61</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,7 +3359,7 @@
         <v>3266</v>
       </c>
       <c r="I27" s="7">
-        <v>3346268</v>
+        <v>3346267</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>35</v>
@@ -3391,7 +3388,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3412,7 +3409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B111D85-10AE-4330-851E-6D6BFFA20C14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3D49CB-A514-4D71-8804-814EAF97CDDF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3429,7 +3426,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3539,7 +3536,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>35</v>
@@ -3554,7 +3551,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>35</v>
@@ -3569,7 +3566,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>35</v>
@@ -3593,7 +3590,7 @@
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3608,7 +3605,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3623,7 +3620,7 @@
         <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,7 +3641,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3659,7 +3656,7 @@
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3674,7 +3671,7 @@
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,28 +3739,28 @@
         <v>564107</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>518</v>
       </c>
       <c r="I8" s="7">
-        <v>549185</v>
+        <v>549186</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>1047</v>
@@ -3772,13 +3769,13 @@
         <v>1113292</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3790,13 @@
         <v>17563</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -3808,13 +3805,13 @@
         <v>25711</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M9" s="7">
         <v>40</v>
@@ -3823,13 +3820,13 @@
         <v>43275</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3841,13 @@
         <v>1783</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3907,7 +3904,7 @@
         <v>549</v>
       </c>
       <c r="I11" s="7">
-        <v>582475</v>
+        <v>582476</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>35</v>
@@ -3984,7 +3981,7 @@
         <v>206</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +3996,13 @@
         <v>68923</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -4014,13 +4011,13 @@
         <v>72870</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -4029,13 +4026,13 @@
         <v>141792</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4047,13 @@
         <v>27798</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -4065,13 +4062,13 @@
         <v>19853</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -4080,13 +4077,13 @@
         <v>47651</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,7 +4139,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4154,13 +4151,13 @@
         <v>691365</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H16" s="7">
         <v>648</v>
@@ -4169,13 +4166,13 @@
         <v>715031</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>1279</v>
@@ -4184,13 +4181,13 @@
         <v>1406396</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4202,13 @@
         <v>53035</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -4220,13 +4217,13 @@
         <v>52345</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -4235,13 +4232,13 @@
         <v>105380</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4253,13 @@
         <v>10955</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -4271,13 +4268,13 @@
         <v>2890</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -4286,13 +4283,13 @@
         <v>13845</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,7 +4345,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4357,31 +4354,31 @@
         <v>788</v>
       </c>
       <c r="D20" s="7">
-        <v>816843</v>
+        <v>816842</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H20" s="7">
         <v>868</v>
       </c>
       <c r="I20" s="7">
-        <v>914056</v>
+        <v>914055</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M20" s="7">
         <v>1656</v>
@@ -4390,13 +4387,13 @@
         <v>1730898</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,13 +4408,13 @@
         <v>89374</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H21" s="7">
         <v>90</v>
@@ -4426,13 +4423,13 @@
         <v>91769</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M21" s="7">
         <v>175</v>
@@ -4441,13 +4438,13 @@
         <v>181143</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>131</v>
+        <v>263</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4459,13 @@
         <v>29286</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -4477,13 +4474,13 @@
         <v>30565</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -4492,13 +4489,13 @@
         <v>59851</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,7 +4507,7 @@
         <v>901</v>
       </c>
       <c r="D23" s="7">
-        <v>935503</v>
+        <v>935502</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>35</v>
@@ -4525,7 +4522,7 @@
         <v>988</v>
       </c>
       <c r="I23" s="7">
-        <v>1036391</v>
+        <v>1036390</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>35</v>
@@ -4566,13 +4563,13 @@
         <v>3100699</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H24" s="7">
         <v>2982</v>
@@ -4581,13 +4578,13 @@
         <v>3219833</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M24" s="7">
         <v>5895</v>
@@ -4596,13 +4593,13 @@
         <v>6320533</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4614,13 @@
         <v>228895</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>227</v>
@@ -4632,13 +4629,13 @@
         <v>242696</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>438</v>
@@ -4647,13 +4644,13 @@
         <v>471591</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4665,13 @@
         <v>69822</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>57</v>
@@ -4683,13 +4680,13 @@
         <v>60887</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>120</v>
@@ -4701,10 +4698,10 @@
         <v>58</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>289</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,7 +4757,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4781,7 +4778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042AC58D-0DE6-491B-BED2-2098952474D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F419E923-6704-4878-8F18-1A435C800DCE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4798,7 +4795,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4905,10 +4902,10 @@
         <v>115516</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -4923,7 +4920,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>35</v>
@@ -4935,10 +4932,10 @@
         <v>227887</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -4956,13 +4953,13 @@
         <v>1030</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4977,7 +4974,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4986,13 +4983,13 @@
         <v>1030</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,7 +5010,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>298</v>
+        <v>183</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5028,7 +5025,7 @@
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5043,7 +5040,7 @@
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5108,13 @@
         <v>516858</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H8" s="7">
         <v>520</v>
@@ -5126,13 +5123,13 @@
         <v>528465</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M8" s="7">
         <v>1020</v>
@@ -5141,13 +5138,13 @@
         <v>1045323</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5159,13 @@
         <v>30331</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>211</v>
+        <v>314</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -5177,13 +5174,13 @@
         <v>23875</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M9" s="7">
         <v>53</v>
@@ -5192,13 +5189,13 @@
         <v>54206</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5210,13 @@
         <v>2924</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5228,13 +5225,13 @@
         <v>5036</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -5243,13 +5240,13 @@
         <v>7960</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>33</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5314,13 @@
         <v>907809</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>270</v>
+        <v>332</v>
       </c>
       <c r="H12" s="7">
         <v>859</v>
@@ -5332,13 +5329,13 @@
         <v>913837</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>328</v>
+        <v>149</v>
       </c>
       <c r="M12" s="7">
         <v>1707</v>
@@ -5347,13 +5344,13 @@
         <v>1821646</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5365,13 @@
         <v>70681</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -5383,13 +5380,13 @@
         <v>78760</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -5398,13 +5395,13 @@
         <v>149441</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5416,13 @@
         <v>35317</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -5434,13 +5431,13 @@
         <v>44502</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
@@ -5449,13 +5446,13 @@
         <v>79819</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,7 +5508,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5523,13 +5520,13 @@
         <v>605223</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
         <v>595</v>
@@ -5538,13 +5535,13 @@
         <v>633545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
         <v>1150</v>
@@ -5553,13 +5550,13 @@
         <v>1238768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5571,13 @@
         <v>97538</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -5589,13 +5586,13 @@
         <v>92924</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>176</v>
@@ -5604,13 +5601,13 @@
         <v>190462</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5622,13 @@
         <v>49816</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -5640,13 +5637,13 @@
         <v>49449</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M18" s="7">
         <v>92</v>
@@ -5655,13 +5652,13 @@
         <v>99265</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,7 +5714,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5729,28 +5726,28 @@
         <v>852581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H20" s="7">
         <v>866</v>
       </c>
       <c r="I20" s="7">
-        <v>944112</v>
+        <v>944111</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M20" s="7">
         <v>1714</v>
@@ -5759,13 +5756,13 @@
         <v>1796694</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>379</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5777,13 @@
         <v>71845</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>381</v>
+        <v>257</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>158</v>
+        <v>386</v>
       </c>
       <c r="H21" s="7">
         <v>70</v>
@@ -5795,13 +5792,13 @@
         <v>75354</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M21" s="7">
         <v>141</v>
@@ -5810,13 +5807,13 @@
         <v>147199</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>209</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5828,13 @@
         <v>7090</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -5846,13 +5843,13 @@
         <v>8863</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>392</v>
+        <v>246</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -5861,13 +5858,13 @@
         <v>15953</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>396</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,7 +5891,7 @@
         <v>945</v>
       </c>
       <c r="I23" s="7">
-        <v>1028329</v>
+        <v>1028328</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>35</v>
@@ -5935,13 +5932,13 @@
         <v>2997987</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>399</v>
+        <v>274</v>
       </c>
       <c r="H24" s="7">
         <v>2954</v>
@@ -5950,13 +5947,13 @@
         <v>3132330</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>402</v>
+        <v>274</v>
       </c>
       <c r="M24" s="7">
         <v>5817</v>
@@ -5989,10 +5986,10 @@
         <v>406</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>47</v>
+        <v>407</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H25" s="7">
         <v>253</v>
@@ -6001,13 +5998,13 @@
         <v>270913</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>278</v>
+        <v>409</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M25" s="7">
         <v>506</v>
@@ -6016,13 +6013,13 @@
         <v>542339</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,10 +6034,10 @@
         <v>95148</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>411</v>
+        <v>318</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>412</v>
+        <v>110</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>413</v>
@@ -6052,13 +6049,13 @@
         <v>107850</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M26" s="7">
         <v>189</v>
@@ -6067,13 +6064,13 @@
         <v>202997</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>63</v>
+        <v>414</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,7 +6126,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -6150,7 +6147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7185FDE5-6948-4820-A599-6B57895268BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1CB6D3-06E9-48FB-969A-ADE380CF9E9F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6167,7 +6164,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6274,10 +6271,10 @@
         <v>100720</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -6292,7 +6289,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>35</v>
@@ -6304,10 +6301,10 @@
         <v>231453</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -6325,13 +6322,13 @@
         <v>1262</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>425</v>
+        <v>50</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6346,7 +6343,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6355,13 +6352,13 @@
         <v>1262</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,7 +6379,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6397,7 +6394,7 @@
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6412,7 +6409,7 @@
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6477,13 @@
         <v>530350</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H8" s="7">
         <v>967</v>
@@ -6495,13 +6492,13 @@
         <v>599941</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M8" s="7">
         <v>1557</v>
@@ -6510,13 +6507,13 @@
         <v>1130292</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,13 +6528,13 @@
         <v>13027</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>438</v>
+        <v>195</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>440</v>
+        <v>136</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -6546,13 +6543,13 @@
         <v>16002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>441</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>443</v>
+        <v>267</v>
       </c>
       <c r="M9" s="7">
         <v>39</v>
@@ -6561,13 +6558,13 @@
         <v>29029</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>117</v>
+        <v>438</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>137</v>
+        <v>439</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,13 +6579,13 @@
         <v>5396</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -6597,13 +6594,13 @@
         <v>3302</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>116</v>
+        <v>445</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -6612,13 +6609,13 @@
         <v>8697</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,13 +6683,13 @@
         <v>983589</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H12" s="7">
         <v>1441</v>
@@ -6701,13 +6698,13 @@
         <v>1002420</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M12" s="7">
         <v>2350</v>
@@ -6716,13 +6713,13 @@
         <v>1986009</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6737,13 +6734,13 @@
         <v>29319</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>411</v>
+        <v>318</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -6752,13 +6749,13 @@
         <v>37225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>460</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>464</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>80</v>
@@ -6767,13 +6764,13 @@
         <v>66544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>461</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>117</v>
+        <v>438</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,13 +6785,13 @@
         <v>24893</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>466</v>
+        <v>346</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -6803,13 +6800,13 @@
         <v>18690</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>439</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>469</v>
+        <v>138</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -6818,13 +6815,13 @@
         <v>43584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,7 +6877,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6892,13 +6889,13 @@
         <v>685647</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H16" s="7">
         <v>988</v>
@@ -6907,13 +6904,13 @@
         <v>829866</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M16" s="7">
         <v>1623</v>
@@ -6922,13 +6919,13 @@
         <v>1515513</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,13 +6940,13 @@
         <v>39730</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>478</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -6958,13 +6955,13 @@
         <v>34999</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>341</v>
+        <v>481</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
@@ -6973,13 +6970,13 @@
         <v>74729</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,13 +6991,13 @@
         <v>2164</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>490</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -7009,13 +7006,13 @@
         <v>1469</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -7024,13 +7021,13 @@
         <v>3633</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,7 +7083,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7098,13 +7095,13 @@
         <v>907074</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H20" s="7">
         <v>1457</v>
@@ -7113,10 +7110,10 @@
         <v>1076796</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>11</v>
@@ -7128,13 +7125,13 @@
         <v>1983870</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7146,13 @@
         <v>40445</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>414</v>
+        <v>242</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>504</v>
+        <v>29</v>
       </c>
       <c r="H21" s="7">
         <v>74</v>
@@ -7164,13 +7161,13 @@
         <v>49293</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M21" s="7">
         <v>116</v>
@@ -7179,13 +7176,13 @@
         <v>89738</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7197,13 @@
         <v>15605</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>196</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -7215,13 +7212,13 @@
         <v>18385</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -7230,13 +7227,13 @@
         <v>33990</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7301,13 @@
         <v>3207380</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H24" s="7">
         <v>5096</v>
@@ -7319,13 +7316,13 @@
         <v>3639756</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="M24" s="7">
         <v>8295</v>
@@ -7334,13 +7331,13 @@
         <v>6847135</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>225</v>
+        <v>517</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7352,13 @@
         <v>123784</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>521</v>
+        <v>315</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>26</v>
+        <v>519</v>
       </c>
       <c r="H25" s="7">
         <v>192</v>
@@ -7370,13 +7367,13 @@
         <v>137518</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>523</v>
+        <v>113</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M25" s="7">
         <v>318</v>
@@ -7385,13 +7382,13 @@
         <v>261302</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>309</v>
+        <v>520</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,13 +7403,13 @@
         <v>48058</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -7421,13 +7418,13 @@
         <v>41846</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>116</v>
+        <v>445</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M26" s="7">
         <v>100</v>
@@ -7436,13 +7433,13 @@
         <v>89904</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>62</v>
+        <v>528</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>390</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7498,7 +7495,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{960D6FEF-A31E-40E1-A223-E38F0D8CFD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D39396F2-6E67-46D7-92C7-0DFD162FD813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51D7E0D6-7E45-4E41-A7F1-77043FA976FA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12C19B4D-E6CB-48C1-B11C-F115E6D0AA1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="548">
   <si>
     <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2007 (Tasa respuesta: 99,02%)</t>
   </si>
@@ -77,1549 +77,1603 @@
     <t>95,29%</t>
   </si>
   <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
     <t>89,52%</t>
   </si>
   <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,13%)</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,13%)</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>3,63%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
   </si>
   <si>
     <t>1,25%</t>
@@ -2040,7 +2094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A11AAB-4CCB-433D-AC11-9FB13D0D80E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53F50E9-A627-4427-983E-7E72FB4B4A7D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2681,10 +2735,10 @@
         <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -2693,13 +2747,13 @@
         <v>27634</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -2708,13 +2762,13 @@
         <v>45013</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,7 +2824,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2782,13 +2836,13 @@
         <v>586654</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>614</v>
@@ -2797,13 +2851,13 @@
         <v>602287</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>1168</v>
@@ -2812,13 +2866,13 @@
         <v>1188942</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,13 +2887,13 @@
         <v>78400</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -2848,13 +2902,13 @@
         <v>64505</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>137</v>
@@ -2863,13 +2917,13 @@
         <v>142905</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,13 +2938,13 @@
         <v>8056</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -2899,13 +2953,13 @@
         <v>14532</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -2914,13 +2968,13 @@
         <v>22588</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,7 +3030,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2988,13 +3042,13 @@
         <v>823161</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>866</v>
@@ -3003,13 +3057,13 @@
         <v>899802</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>1734</v>
@@ -3018,13 +3072,13 @@
         <v>1722962</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,10 +3096,10 @@
         <v>79</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H21" s="7">
         <v>92</v>
@@ -3054,13 +3108,13 @@
         <v>96974</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M21" s="7">
         <v>171</v>
@@ -3069,13 +3123,13 @@
         <v>170743</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3144,13 @@
         <v>24935</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -3105,13 +3159,13 @@
         <v>19689</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -3120,13 +3174,13 @@
         <v>44625</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3248,13 @@
         <v>2896029</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>2926</v>
@@ -3209,13 +3263,13 @@
         <v>2986630</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>5766</v>
@@ -3224,13 +3278,13 @@
         <v>5882660</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3299,13 @@
         <v>289752</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>269</v>
@@ -3260,13 +3314,13 @@
         <v>286995</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>553</v>
@@ -3275,13 +3329,13 @@
         <v>576747</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3350,13 @@
         <v>58268</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>71</v>
@@ -3311,13 +3365,13 @@
         <v>72642</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>128</v>
@@ -3326,13 +3380,13 @@
         <v>130909</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,7 +3442,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3409,7 +3463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3D49CB-A514-4D71-8804-814EAF97CDDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6B40C1-37D4-4127-A1A4-F43FE80226AB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3426,7 +3480,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3536,7 +3590,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>35</v>
@@ -3551,7 +3605,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>35</v>
@@ -3566,7 +3620,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>35</v>
@@ -3590,7 +3644,7 @@
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3605,7 +3659,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3620,7 +3674,7 @@
         <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,7 +3695,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3656,7 +3710,7 @@
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3671,7 +3725,7 @@
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,28 +3793,28 @@
         <v>564107</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>518</v>
       </c>
       <c r="I8" s="7">
-        <v>549186</v>
+        <v>549185</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>1047</v>
@@ -3769,13 +3823,13 @@
         <v>1113292</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,13 +3844,13 @@
         <v>17563</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -3805,13 +3859,13 @@
         <v>25711</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M9" s="7">
         <v>40</v>
@@ -3820,13 +3874,13 @@
         <v>43275</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3895,13 @@
         <v>1783</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3856,13 +3910,13 @@
         <v>7578</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3871,13 +3925,13 @@
         <v>9361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,7 +3958,7 @@
         <v>549</v>
       </c>
       <c r="I11" s="7">
-        <v>582476</v>
+        <v>582475</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>35</v>
@@ -3945,13 +3999,13 @@
         <v>915856</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H12" s="7">
         <v>849</v>
@@ -3960,13 +4014,13 @@
         <v>929655</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M12" s="7">
         <v>1695</v>
@@ -3975,13 +4029,13 @@
         <v>1845511</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,10 +4050,10 @@
         <v>68923</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>210</v>
@@ -4050,10 +4104,10 @@
         <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -4062,13 +4116,13 @@
         <v>19853</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -4077,13 +4131,13 @@
         <v>47651</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,7 +4193,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4151,13 +4205,13 @@
         <v>691365</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H16" s="7">
         <v>648</v>
@@ -4166,13 +4220,13 @@
         <v>715031</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>1279</v>
@@ -4181,13 +4235,13 @@
         <v>1406396</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4256,13 @@
         <v>53035</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -4217,13 +4271,13 @@
         <v>52345</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -4232,13 +4286,13 @@
         <v>105380</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4307,13 @@
         <v>10955</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -4268,13 +4322,13 @@
         <v>2890</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -4283,13 +4337,13 @@
         <v>13845</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,7 +4399,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4354,31 +4408,31 @@
         <v>788</v>
       </c>
       <c r="D20" s="7">
-        <v>816842</v>
+        <v>816843</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H20" s="7">
         <v>868</v>
       </c>
       <c r="I20" s="7">
-        <v>914055</v>
+        <v>914056</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M20" s="7">
         <v>1656</v>
@@ -4387,13 +4441,13 @@
         <v>1730898</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4462,13 @@
         <v>89374</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H21" s="7">
         <v>90</v>
@@ -4423,13 +4477,13 @@
         <v>91769</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M21" s="7">
         <v>175</v>
@@ -4438,13 +4492,13 @@
         <v>181143</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4513,13 @@
         <v>29286</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -4474,13 +4528,13 @@
         <v>30565</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -4489,13 +4543,13 @@
         <v>59851</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,7 +4561,7 @@
         <v>901</v>
       </c>
       <c r="D23" s="7">
-        <v>935502</v>
+        <v>935503</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>35</v>
@@ -4522,7 +4576,7 @@
         <v>988</v>
       </c>
       <c r="I23" s="7">
-        <v>1036390</v>
+        <v>1036391</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>35</v>
@@ -4563,13 +4617,13 @@
         <v>3100699</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H24" s="7">
         <v>2982</v>
@@ -4578,13 +4632,13 @@
         <v>3219833</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M24" s="7">
         <v>5895</v>
@@ -4593,13 +4647,13 @@
         <v>6320533</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4668,13 @@
         <v>228895</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>227</v>
@@ -4629,13 +4683,13 @@
         <v>242696</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>438</v>
@@ -4644,13 +4698,13 @@
         <v>471591</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4719,13 @@
         <v>69822</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>57</v>
@@ -4680,13 +4734,13 @@
         <v>60887</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M26" s="7">
         <v>120</v>
@@ -4698,10 +4752,10 @@
         <v>58</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,7 +4811,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4778,7 +4832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F419E923-6704-4878-8F18-1A435C800DCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B4C0A-1FF0-4384-9531-C207163DD140}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4795,7 +4849,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4902,10 +4956,10 @@
         <v>115516</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -4920,7 +4974,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>35</v>
@@ -4932,10 +4986,10 @@
         <v>227887</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -4953,13 +5007,13 @@
         <v>1030</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4974,7 +5028,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4983,13 +5037,13 @@
         <v>1030</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,7 +5064,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>183</v>
+        <v>301</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5025,7 +5079,7 @@
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5040,7 +5094,7 @@
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5162,13 @@
         <v>516858</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H8" s="7">
         <v>520</v>
@@ -5123,13 +5177,13 @@
         <v>528465</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M8" s="7">
         <v>1020</v>
@@ -5138,13 +5192,13 @@
         <v>1045323</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,13 +5213,13 @@
         <v>30331</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -5174,13 +5228,13 @@
         <v>23875</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M9" s="7">
         <v>53</v>
@@ -5189,13 +5243,13 @@
         <v>54206</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,13 +5264,13 @@
         <v>2924</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5225,13 +5279,13 @@
         <v>5036</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -5240,10 +5294,10 @@
         <v>7960</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>329</v>
@@ -5335,7 +5389,7 @@
         <v>334</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>149</v>
+        <v>335</v>
       </c>
       <c r="M12" s="7">
         <v>1707</v>
@@ -5344,13 +5398,13 @@
         <v>1821646</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,10 +5422,10 @@
         <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>338</v>
+        <v>133</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -5380,13 +5434,13 @@
         <v>78760</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -5395,10 +5449,10 @@
         <v>149441</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>344</v>
@@ -5449,10 +5503,10 @@
         <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,7 +5562,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5520,13 +5574,13 @@
         <v>605223</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H16" s="7">
         <v>595</v>
@@ -5535,13 +5589,13 @@
         <v>633545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>1150</v>
@@ -5550,13 +5604,13 @@
         <v>1238768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,13 +5625,13 @@
         <v>97538</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -5586,13 +5640,13 @@
         <v>92924</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>176</v>
@@ -5601,13 +5655,13 @@
         <v>190462</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5676,13 @@
         <v>49816</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -5637,13 +5691,13 @@
         <v>49449</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M18" s="7">
         <v>92</v>
@@ -5652,13 +5706,13 @@
         <v>99265</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,7 +5768,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5726,13 +5780,13 @@
         <v>852581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H20" s="7">
         <v>866</v>
@@ -5741,13 +5795,13 @@
         <v>944111</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M20" s="7">
         <v>1714</v>
@@ -5756,13 +5810,13 @@
         <v>1796694</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>125</v>
+        <v>386</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5831,13 @@
         <v>71845</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>257</v>
+        <v>388</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>386</v>
+        <v>130</v>
       </c>
       <c r="H21" s="7">
         <v>70</v>
@@ -5792,13 +5846,13 @@
         <v>75354</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M21" s="7">
         <v>141</v>
@@ -5807,13 +5861,13 @@
         <v>147199</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5882,13 @@
         <v>7090</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -5843,13 +5897,13 @@
         <v>8863</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -5858,13 +5912,13 @@
         <v>15953</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,13 +5986,13 @@
         <v>2997987</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>399</v>
+        <v>222</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>274</v>
+        <v>405</v>
       </c>
       <c r="H24" s="7">
         <v>2954</v>
@@ -5947,13 +6001,13 @@
         <v>3132330</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>402</v>
+        <v>333</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>274</v>
+        <v>127</v>
       </c>
       <c r="M24" s="7">
         <v>5817</v>
@@ -5962,13 +6016,13 @@
         <v>6130317</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5983,13 +6037,13 @@
         <v>271425</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H25" s="7">
         <v>253</v>
@@ -5998,13 +6052,13 @@
         <v>270913</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>316</v>
+        <v>413</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M25" s="7">
         <v>506</v>
@@ -6013,13 +6067,13 @@
         <v>542339</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6088,13 @@
         <v>95148</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>318</v>
+        <v>419</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>110</v>
+        <v>420</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="H26" s="7">
         <v>101</v>
@@ -6049,13 +6103,13 @@
         <v>107850</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>242</v>
+        <v>422</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="M26" s="7">
         <v>189</v>
@@ -6064,13 +6118,13 @@
         <v>202997</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,7 +6180,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6147,7 +6201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1CB6D3-06E9-48FB-969A-ADE380CF9E9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BF7C22-2333-4772-982A-795E8A2FFB20}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6164,7 +6218,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6271,10 +6325,10 @@
         <v>100720</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -6289,7 +6343,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>35</v>
@@ -6301,10 +6355,10 @@
         <v>231453</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -6322,13 +6376,13 @@
         <v>1262</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>423</v>
+        <v>140</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>50</v>
+        <v>433</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6343,7 +6397,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6352,13 +6406,13 @@
         <v>1262</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,7 +6433,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6394,7 +6448,7 @@
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6409,7 +6463,7 @@
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6531,13 @@
         <v>530350</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="H8" s="7">
         <v>967</v>
@@ -6492,13 +6546,13 @@
         <v>599941</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="M8" s="7">
         <v>1557</v>
@@ -6507,13 +6561,13 @@
         <v>1130292</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,13 +6582,13 @@
         <v>13027</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>195</v>
+        <v>445</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>136</v>
+        <v>447</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -6543,13 +6597,13 @@
         <v>16002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>448</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>267</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>39</v>
@@ -6558,13 +6612,13 @@
         <v>29029</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,13 +6633,13 @@
         <v>5396</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>441</v>
+        <v>28</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>442</v>
+        <v>328</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -6594,13 +6648,13 @@
         <v>3302</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -6609,13 +6663,13 @@
         <v>8697</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>447</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>448</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,13 +6737,13 @@
         <v>983589</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="H12" s="7">
         <v>1441</v>
@@ -6698,13 +6752,13 @@
         <v>1002420</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="M12" s="7">
         <v>2350</v>
@@ -6713,13 +6767,13 @@
         <v>1986009</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6734,13 +6788,13 @@
         <v>29319</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>318</v>
+        <v>419</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -6749,13 +6803,13 @@
         <v>37225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>469</v>
       </c>
       <c r="M13" s="7">
         <v>80</v>
@@ -6764,13 +6818,13 @@
         <v>66544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>438</v>
+        <v>471</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,13 +6839,13 @@
         <v>24893</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>346</v>
+        <v>473</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -6800,13 +6854,13 @@
         <v>18690</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>477</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>465</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -6815,13 +6869,13 @@
         <v>43584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>443</v>
+        <v>326</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>467</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6877,7 +6931,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6889,13 +6943,13 @@
         <v>685647</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="H16" s="7">
         <v>988</v>
@@ -6904,13 +6958,13 @@
         <v>829866</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="M16" s="7">
         <v>1623</v>
@@ -6919,13 +6973,13 @@
         <v>1515513</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,13 +6994,13 @@
         <v>39730</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -6955,13 +7009,13 @@
         <v>34999</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
@@ -6970,13 +7024,13 @@
         <v>74729</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,13 +7045,13 @@
         <v>2164</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>499</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -7006,13 +7060,13 @@
         <v>1469</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -7021,13 +7075,13 @@
         <v>3633</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,7 +7137,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7095,13 +7149,13 @@
         <v>907074</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="H20" s="7">
         <v>1457</v>
@@ -7110,13 +7164,13 @@
         <v>1076796</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>11</v>
+        <v>509</v>
       </c>
       <c r="M20" s="7">
         <v>2405</v>
@@ -7125,13 +7179,13 @@
         <v>1983870</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,13 +7200,13 @@
         <v>40445</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>242</v>
+        <v>514</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>29</v>
+        <v>515</v>
       </c>
       <c r="H21" s="7">
         <v>74</v>
@@ -7161,13 +7215,13 @@
         <v>49293</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="M21" s="7">
         <v>116</v>
@@ -7176,13 +7230,13 @@
         <v>89738</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,13 +7251,13 @@
         <v>15605</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>523</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -7212,13 +7266,13 @@
         <v>18385</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -7227,13 +7281,13 @@
         <v>33990</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>192</v>
+        <v>526</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,13 +7355,13 @@
         <v>3207380</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="H24" s="7">
         <v>5096</v>
@@ -7316,13 +7370,13 @@
         <v>3639756</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="M24" s="7">
         <v>8295</v>
@@ -7331,13 +7385,13 @@
         <v>6847135</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>494</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,13 +7406,13 @@
         <v>123784</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>315</v>
+        <v>536</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="H25" s="7">
         <v>192</v>
@@ -7367,13 +7421,13 @@
         <v>137518</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>538</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>518</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>317</v>
+        <v>519</v>
       </c>
       <c r="M25" s="7">
         <v>318</v>
@@ -7382,13 +7436,13 @@
         <v>261302</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,13 +7457,13 @@
         <v>48058</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>525</v>
+        <v>267</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -7418,13 +7472,13 @@
         <v>41846</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>445</v>
+        <v>544</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="M26" s="7">
         <v>100</v>
@@ -7433,13 +7487,13 @@
         <v>89904</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,7 +7549,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
